--- a/_excel/#RoleStateConfig.xlsx
+++ b/_excel/#RoleStateConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\Project\PojectChess\_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F2FA1C-B824-4020-BAAA-A7C17032C18D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88490A95-02EC-4803-A6A7-7C56C12697CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>##var</t>
   </si>
@@ -509,15 +509,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
     <col min="4" max="4" width="39.5" customWidth="1"/>
     <col min="5" max="7" width="23.33203125" customWidth="1"/>
   </cols>
@@ -607,7 +607,7 @@
         <v>19</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -630,6 +630,74 @@
         <v>2</v>
       </c>
       <c r="G6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>1003</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>1004</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>1005</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>1006</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
         <v>3</v>
       </c>
     </row>
